--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6B3AAB2E-3BC9-4110-B2ED-5F342AB8779D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1F19DD8D-5F59-4308-8A04-20074235E982}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="885" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="885" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,9 @@
     <sheet name="加购产品" sheetId="4" r:id="rId5"/>
     <sheet name="购物车（查询、修改配置、删、提交）" sheetId="5" r:id="rId6"/>
     <sheet name="资产（续订、退订、变更、查询）" sheetId="6" r:id="rId7"/>
-    <sheet name="个人管理平台（修改密码、重置密码、审核）" sheetId="7" r:id="rId8"/>
+    <sheet name="修改密码" sheetId="7" r:id="rId8"/>
+    <sheet name="重置密码" sheetId="9" r:id="rId9"/>
+    <sheet name="审核" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="166">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +678,18 @@
   </si>
   <si>
     <t>新密码admin，确认密码admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已登录，进入个人管理平台界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已登录，进入个人管理平台界面。原密码123，新密码admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -819,6 +833,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -827,13 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1168,16 +1185,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5">
-      <c r="A2" s="13">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1186,77 +1203,77 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="28.5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="28.5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1283,7 @@
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="28.5">
       <c r="A9" s="5">
@@ -1288,49 +1305,49 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5">
@@ -1352,107 +1369,107 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="13">
+      <c r="A14" s="17">
         <v>15</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="13">
+      <c r="A16" s="17">
         <v>16</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="28.5">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21"/>
@@ -3688,12 +3705,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE78921-F3DB-408F-8345-F7ED02AF089B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5">
+      <c r="A2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5">
+      <c r="A3" s="17"/>
+      <c r="B3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5">
+      <c r="A4" s="17"/>
+      <c r="B4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACB61EA-B69A-4012-A294-921289DF20BC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3719,10 +3814,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -3733,8 +3828,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
@@ -3743,8 +3838,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="12" t="s">
         <v>56</v>
       </c>
@@ -3753,8 +3848,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="12" t="s">
         <v>57</v>
       </c>
@@ -3763,8 +3858,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
@@ -3773,7 +3868,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="12" t="s">
         <v>52</v>
       </c>
@@ -3800,7 +3895,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3826,10 +3921,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -3840,8 +3935,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="12" t="s">
         <v>70</v>
       </c>
@@ -3850,8 +3945,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="12" t="s">
         <v>71</v>
       </c>
@@ -3860,8 +3955,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="12" t="s">
         <v>72</v>
       </c>
@@ -3870,8 +3965,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="12" t="s">
         <v>73</v>
       </c>
@@ -3880,8 +3975,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="12" t="s">
         <v>75</v>
       </c>
@@ -3890,8 +3985,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="12" t="s">
         <v>76</v>
       </c>
@@ -3900,8 +3995,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
         <v>53</v>
       </c>
@@ -3910,8 +4005,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="12" t="s">
         <v>77</v>
       </c>
@@ -3920,8 +4015,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
         <v>78</v>
       </c>
@@ -3930,8 +4025,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="12" t="s">
         <v>79</v>
       </c>
@@ -3940,8 +4035,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="12" t="s">
         <v>83</v>
       </c>
@@ -3950,8 +4045,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="12" t="s">
         <v>57</v>
       </c>
@@ -3960,8 +4055,8 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="12" t="s">
         <v>55</v>
       </c>
@@ -3970,8 +4065,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="12" t="s">
         <v>84</v>
       </c>
@@ -3980,8 +4075,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="12" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4085,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="12" t="s">
         <v>57</v>
       </c>
@@ -4000,8 +4095,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="12" t="s">
         <v>14</v>
       </c>
@@ -4010,7 +4105,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="13"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="12" t="s">
         <v>65</v>
       </c>
@@ -4022,8 +4117,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -4034,7 +4129,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5">
-      <c r="D24" s="17"/>
+      <c r="D24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4052,7 +4147,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4087,7 +4182,7 @@
       <c r="C2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4102,7 +4197,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4151,15 +4246,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4176,8 +4271,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:4" ht="28.5">
+      <c r="A2" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -4191,7 +4286,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="12" t="s">
         <v>92</v>
       </c>
@@ -4203,26 +4298,26 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="42.75">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4240,7 +4335,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4266,7 +4361,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.75">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -4280,7 +4375,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="12" t="s">
         <v>107</v>
       </c>
@@ -4292,26 +4387,26 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4326,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2206FC-1EA8-45C0-AFB0-19E667FAB079}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4354,313 +4449,321 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" ht="28.5">
+      <c r="A2" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98E0D73-15ED-4591-A196-78954E2239EB}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.5">
+      <c r="A2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="B2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5">
+      <c r="A3" s="17"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5">
+      <c r="A4" s="17"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.5">
+      <c r="A6" s="17"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5">
+      <c r="A7" s="17"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="18" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="17"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="17"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="K9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="17"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="17"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.5">
-      <c r="A20" s="13"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="18" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="17"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="18" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="17"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="17"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="18" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="17"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="18" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="17"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B15:B30"/>
-    <mergeCell ref="A2:A30"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
